--- a/output/dept_banner/Tushar Acharya_2022.xlsx
+++ b/output/dept_banner/Tushar Acharya_2022.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>176</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
